--- a/Listas de precios/mayorista/TORNILLO PUNTA AGUJA WAFER DISMAY.xlsx
+++ b/Listas de precios/mayorista/TORNILLO PUNTA AGUJA WAFER DISMAY.xlsx
@@ -992,7 +992,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="36" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="F1" s="3" t="n"/>
     </row>
@@ -1169,11 +1169,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A29:E29"/>
     <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A9:E9"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A9:E9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/mayorista/TORNILLO PUNTA AGUJA WAFER DISMAY.xlsx
+++ b/Listas de precios/mayorista/TORNILLO PUNTA AGUJA WAFER DISMAY.xlsx
@@ -992,7 +992,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="36" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="F1" s="3" t="n"/>
     </row>
@@ -1169,11 +1169,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="B32:D32"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="B33:D33"/>
     <mergeCell ref="A9:E9"/>
-    <mergeCell ref="B32:D32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/mayorista/TORNILLO PUNTA AGUJA WAFER DISMAY.xlsx
+++ b/Listas de precios/mayorista/TORNILLO PUNTA AGUJA WAFER DISMAY.xlsx
@@ -992,7 +992,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="36" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="F1" s="3" t="n"/>
     </row>
@@ -1169,11 +1169,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A29:E29"/>
     <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A9:E9"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A9:E9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
